--- a/biology/Botanique/Bryidae/Bryidae.xlsx
+++ b/biology/Botanique/Bryidae/Bryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryidae sont une sous-classe végétale de mousses.
 On retrouve la plupart des espèces de mousses, environ 9 500, dans la sous-classe des Bryidae ; on les appelle aussi "vraies mousses".
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve les Bryidae principalement en milieux tempérés et tropicaux humides. Certaines espèces croissent en Arctique et en Antarctique.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sporophyte des mousses est attaché au gamétophyte qu'il parasite, tout comme chez les anthocérotes et les hépatiques. Il est composé d'une capsule (ou sporange) qui est généralement portée par une soie qui facilite la dispersion des spores. Un calyptre recouvre partiellement ou complètement la capsule chez certaines espèces. Une structure particulière aux Bryidae, appelé péristome, est utilisée pour la classification et l'identification des mousses. Il est formé d'un anneau de dents qui sont produites par mouvements hygroscopiques lors de périodes sèches.
 Lorsqu'il est jeune, le sporophyte est photosynthétique mais il perd cette caractéristique à maturité.
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction sexuée des mousses est semblable à celle des autres bryophytes.
 </t>
@@ -607,7 +625,9 @@
           <t>Ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Super-ordre Bryanae
 ordre Bartramiales
